--- a/data/pca/factorExposure/factorExposure_2016-06-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01064578936659335</v>
+        <v>0.01238732427017914</v>
       </c>
       <c r="C2">
-        <v>-0.0545707409153106</v>
+        <v>0.04053951421293921</v>
       </c>
       <c r="D2">
-        <v>-0.04176529313371099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05714566205970656</v>
+      </c>
+      <c r="E2">
+        <v>0.0826547322599747</v>
+      </c>
+      <c r="F2">
+        <v>0.08329263572076806</v>
+      </c>
+      <c r="G2">
+        <v>0.003927469925073414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03866032846706751</v>
+        <v>0.02317409091643539</v>
       </c>
       <c r="C3">
-        <v>-0.1159099726358398</v>
+        <v>0.07047715345998673</v>
       </c>
       <c r="D3">
-        <v>-0.09326995948449571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07880268724727706</v>
+      </c>
+      <c r="E3">
+        <v>0.0653957272608864</v>
+      </c>
+      <c r="F3">
+        <v>-0.02355318759230322</v>
+      </c>
+      <c r="G3">
+        <v>-0.03947333514099369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05758155164340031</v>
+        <v>0.05603966504349044</v>
       </c>
       <c r="C4">
-        <v>-0.06214899111613793</v>
+        <v>0.06512322273741523</v>
       </c>
       <c r="D4">
-        <v>-0.02888010342785882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05205351343134026</v>
+      </c>
+      <c r="E4">
+        <v>0.08105173896738938</v>
+      </c>
+      <c r="F4">
+        <v>0.06629913049935227</v>
+      </c>
+      <c r="G4">
+        <v>-0.07061704906235901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03857081275091458</v>
+        <v>0.03460487410003078</v>
       </c>
       <c r="C6">
-        <v>-0.03908148759338528</v>
+        <v>0.03010469258738468</v>
       </c>
       <c r="D6">
-        <v>-0.03311618186485073</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05848214343319832</v>
+      </c>
+      <c r="E6">
+        <v>0.0829486817402194</v>
+      </c>
+      <c r="F6">
+        <v>0.05113917300060336</v>
+      </c>
+      <c r="G6">
+        <v>-0.05506285102494646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02031862087401791</v>
+        <v>0.01702582807446656</v>
       </c>
       <c r="C7">
-        <v>-0.04660709019381214</v>
+        <v>0.03850157243907458</v>
       </c>
       <c r="D7">
-        <v>0.005647943780168157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03338667560017369</v>
+      </c>
+      <c r="E7">
+        <v>0.05970770171661435</v>
+      </c>
+      <c r="F7">
+        <v>0.0966513840947425</v>
+      </c>
+      <c r="G7">
+        <v>-0.05988807814165972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.005651821105095501</v>
+        <v>0.003159510938758719</v>
       </c>
       <c r="C8">
-        <v>-0.03561627911809411</v>
+        <v>0.03195863840221885</v>
       </c>
       <c r="D8">
-        <v>-0.0254499627131333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03066242063458125</v>
+      </c>
+      <c r="E8">
+        <v>0.05553273187593197</v>
+      </c>
+      <c r="F8">
+        <v>0.0328870937836093</v>
+      </c>
+      <c r="G8">
+        <v>-0.02564520675925049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03181205837376085</v>
+        <v>0.03579567453276059</v>
       </c>
       <c r="C9">
-        <v>-0.04820164737829829</v>
+        <v>0.05191081542292693</v>
       </c>
       <c r="D9">
-        <v>-0.01372763541691057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03738082670194363</v>
+      </c>
+      <c r="E9">
+        <v>0.0689057796192373</v>
+      </c>
+      <c r="F9">
+        <v>0.07594734416079198</v>
+      </c>
+      <c r="G9">
+        <v>-0.06006531446757057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0856300738710993</v>
+        <v>0.1059057257542596</v>
       </c>
       <c r="C10">
-        <v>0.1870619085420892</v>
+        <v>-0.1927906419334851</v>
       </c>
       <c r="D10">
-        <v>0.006293723891184477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0112755383611252</v>
+      </c>
+      <c r="E10">
+        <v>0.04413106681809578</v>
+      </c>
+      <c r="F10">
+        <v>0.02737432545905214</v>
+      </c>
+      <c r="G10">
+        <v>-0.02513175429470114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03900599332779042</v>
+        <v>0.03485774827445623</v>
       </c>
       <c r="C11">
-        <v>-0.05484243099617408</v>
+        <v>0.04966432842115119</v>
       </c>
       <c r="D11">
-        <v>-0.01015330703697492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03013610167555222</v>
+      </c>
+      <c r="E11">
+        <v>0.02315403329210108</v>
+      </c>
+      <c r="F11">
+        <v>0.06010065385390032</v>
+      </c>
+      <c r="G11">
+        <v>-0.04801931441410807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0411662652969857</v>
+        <v>0.03719681718719325</v>
       </c>
       <c r="C12">
-        <v>-0.04980390617524948</v>
+        <v>0.04691657427664852</v>
       </c>
       <c r="D12">
-        <v>-0.0007313195499387708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02327917415523693</v>
+      </c>
+      <c r="E12">
+        <v>0.03071963287487274</v>
+      </c>
+      <c r="F12">
+        <v>0.06160081870439154</v>
+      </c>
+      <c r="G12">
+        <v>-0.04424532871692889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01074594040564201</v>
+        <v>0.009661213768917151</v>
       </c>
       <c r="C13">
-        <v>-0.05274648466937241</v>
+        <v>0.04197989967794234</v>
       </c>
       <c r="D13">
-        <v>-0.01249607643882671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04455946446259678</v>
+      </c>
+      <c r="E13">
+        <v>0.09357942840468055</v>
+      </c>
+      <c r="F13">
+        <v>0.0871079540412439</v>
+      </c>
+      <c r="G13">
+        <v>-0.06721021003533829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006058404921487251</v>
+        <v>0.00381168698800935</v>
       </c>
       <c r="C14">
-        <v>-0.04117884712205044</v>
+        <v>0.03305496478691708</v>
       </c>
       <c r="D14">
-        <v>0.01249323697825582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02156399806064492</v>
+      </c>
+      <c r="E14">
+        <v>0.04652323106582749</v>
+      </c>
+      <c r="F14">
+        <v>0.09561549646078216</v>
+      </c>
+      <c r="G14">
+        <v>-0.04507709828242373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002965775433534634</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004816802137057236</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.006588088491751395</v>
+      </c>
+      <c r="E15">
+        <v>0.003829503177440016</v>
+      </c>
+      <c r="F15">
+        <v>0.006738952911216568</v>
+      </c>
+      <c r="G15">
+        <v>-0.003859508262030492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03611136102416544</v>
+        <v>0.03317149099882465</v>
       </c>
       <c r="C16">
-        <v>-0.05013005526232069</v>
+        <v>0.04592817460303176</v>
       </c>
       <c r="D16">
-        <v>-0.006392082941311042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02357448106429086</v>
+      </c>
+      <c r="E16">
+        <v>0.03704872331352558</v>
+      </c>
+      <c r="F16">
+        <v>0.06437209245468857</v>
+      </c>
+      <c r="G16">
+        <v>-0.03290188077890297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01854611915985391</v>
+        <v>0.01440975413612782</v>
       </c>
       <c r="C19">
-        <v>-0.06589777333237377</v>
+        <v>0.04811647893078445</v>
       </c>
       <c r="D19">
-        <v>-0.08720905943486477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08770108699741024</v>
+      </c>
+      <c r="E19">
+        <v>0.1063304865433155</v>
+      </c>
+      <c r="F19">
+        <v>0.08431278688446359</v>
+      </c>
+      <c r="G19">
+        <v>-0.01870397104297092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01405613582298251</v>
+        <v>0.01171677302353954</v>
       </c>
       <c r="C20">
-        <v>-0.0484787091599905</v>
+        <v>0.03926504888390398</v>
       </c>
       <c r="D20">
-        <v>-0.01181679039165092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03175694727688304</v>
+      </c>
+      <c r="E20">
+        <v>0.07436494003518035</v>
+      </c>
+      <c r="F20">
+        <v>0.07178989650438121</v>
+      </c>
+      <c r="G20">
+        <v>-0.04376108880100528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.007362380372858517</v>
+        <v>0.007555091421929946</v>
       </c>
       <c r="C21">
-        <v>-0.05042936764105385</v>
+        <v>0.04235324326685581</v>
       </c>
       <c r="D21">
-        <v>-0.03763959516666068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05808995363014709</v>
+      </c>
+      <c r="E21">
+        <v>0.1150810740774925</v>
+      </c>
+      <c r="F21">
+        <v>0.1159931848484805</v>
+      </c>
+      <c r="G21">
+        <v>-0.06812749046472941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0007700111418142532</v>
+        <v>0.002363836220345002</v>
       </c>
       <c r="C22">
-        <v>-0.0005939189765947693</v>
+        <v>0.0254071884747767</v>
       </c>
       <c r="D22">
-        <v>-0.001717643067889257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04166731615237671</v>
+      </c>
+      <c r="E22">
+        <v>0.03779168419898119</v>
+      </c>
+      <c r="F22">
+        <v>0.004056734328120721</v>
+      </c>
+      <c r="G22">
+        <v>-0.05061809586403554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0007756327750616204</v>
+        <v>0.002435274913471981</v>
       </c>
       <c r="C23">
-        <v>-0.0005939204549199687</v>
+        <v>0.02556507002023099</v>
       </c>
       <c r="D23">
-        <v>-0.001724044460636858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04132044010483561</v>
+      </c>
+      <c r="E23">
+        <v>0.03806032281700846</v>
+      </c>
+      <c r="F23">
+        <v>0.003748922264135287</v>
+      </c>
+      <c r="G23">
+        <v>-0.05070627152576049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03256499381939971</v>
+        <v>0.03290362899671166</v>
       </c>
       <c r="C24">
-        <v>-0.05165031217981089</v>
+        <v>0.05343129597194013</v>
       </c>
       <c r="D24">
-        <v>-0.00693898492467692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02356650118078502</v>
+      </c>
+      <c r="E24">
+        <v>0.03843906012797402</v>
+      </c>
+      <c r="F24">
+        <v>0.06880003818245531</v>
+      </c>
+      <c r="G24">
+        <v>-0.04339396142294501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04594287428726954</v>
+        <v>0.04237243773008434</v>
       </c>
       <c r="C25">
-        <v>-0.06392905094154218</v>
+        <v>0.0578766022782679</v>
       </c>
       <c r="D25">
-        <v>0.00423394992798876</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02187193447116651</v>
+      </c>
+      <c r="E25">
+        <v>0.02863463136484296</v>
+      </c>
+      <c r="F25">
+        <v>0.0649812147759144</v>
+      </c>
+      <c r="G25">
+        <v>-0.05942395280077005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0150043934848659</v>
+        <v>0.01430036047127836</v>
       </c>
       <c r="C26">
-        <v>-0.0190824955171505</v>
+        <v>0.01750300529761202</v>
       </c>
       <c r="D26">
-        <v>0.0003760653774379194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02081601615610768</v>
+      </c>
+      <c r="E26">
+        <v>0.04787003999237385</v>
+      </c>
+      <c r="F26">
+        <v>0.07149794549380231</v>
+      </c>
+      <c r="G26">
+        <v>-0.02097592339062368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1013340733478739</v>
+        <v>0.141688447433985</v>
       </c>
       <c r="C28">
-        <v>0.2397635737831933</v>
+        <v>-0.2463191890123605</v>
       </c>
       <c r="D28">
-        <v>0.007896761205889667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0279073658236872</v>
+      </c>
+      <c r="E28">
+        <v>0.06027225416913454</v>
+      </c>
+      <c r="F28">
+        <v>0.04507467853359506</v>
+      </c>
+      <c r="G28">
+        <v>-0.04391425394155808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.005817999957089707</v>
+        <v>0.004850515367239834</v>
       </c>
       <c r="C29">
-        <v>-0.03307709467089225</v>
+        <v>0.02914762495889217</v>
       </c>
       <c r="D29">
-        <v>0.01638360190537927</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01513598323396049</v>
+      </c>
+      <c r="E29">
+        <v>0.04526806651419474</v>
+      </c>
+      <c r="F29">
+        <v>0.08475751525763156</v>
+      </c>
+      <c r="G29">
+        <v>-0.05456294468181801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0420149631239417</v>
+        <v>0.03851142857264702</v>
       </c>
       <c r="C30">
-        <v>-0.05744480879215677</v>
+        <v>0.05872147659434815</v>
       </c>
       <c r="D30">
-        <v>-0.06350815085644107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0955111109630904</v>
+      </c>
+      <c r="E30">
+        <v>0.07142475592327685</v>
+      </c>
+      <c r="F30">
+        <v>0.09069334492915558</v>
+      </c>
+      <c r="G30">
+        <v>-0.03258581398409239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05548719983625638</v>
+        <v>0.05553109931011415</v>
       </c>
       <c r="C31">
-        <v>-0.0472812808188816</v>
+        <v>0.06219283192743918</v>
       </c>
       <c r="D31">
-        <v>0.02303739403831066</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01218023249807431</v>
+      </c>
+      <c r="E31">
+        <v>0.0678628920672403</v>
+      </c>
+      <c r="F31">
+        <v>0.04781140900074916</v>
+      </c>
+      <c r="G31">
+        <v>-0.07317301518478279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0024616815103195</v>
+        <v>0.004772828446803058</v>
       </c>
       <c r="C32">
-        <v>-0.0394623971440536</v>
+        <v>0.03278822526001823</v>
       </c>
       <c r="D32">
-        <v>-0.04742356377841953</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05228017085095665</v>
+      </c>
+      <c r="E32">
+        <v>0.05467531472311388</v>
+      </c>
+      <c r="F32">
+        <v>0.0738496575312356</v>
+      </c>
+      <c r="G32">
+        <v>-0.02579764840756046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02635753905730602</v>
+        <v>0.02343801556606597</v>
       </c>
       <c r="C33">
-        <v>-0.06390046416364463</v>
+        <v>0.05546108556270279</v>
       </c>
       <c r="D33">
-        <v>-0.03984970180694207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06956032249629689</v>
+      </c>
+      <c r="E33">
+        <v>0.08632333130408786</v>
+      </c>
+      <c r="F33">
+        <v>0.1035726465125973</v>
+      </c>
+      <c r="G33">
+        <v>-0.06920725478580181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04389715303446956</v>
+        <v>0.03988516801943466</v>
       </c>
       <c r="C34">
-        <v>-0.0689907040850691</v>
+        <v>0.06600048321246647</v>
       </c>
       <c r="D34">
-        <v>-0.006013387269863455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03262074894186166</v>
+      </c>
+      <c r="E34">
+        <v>0.01016778046695099</v>
+      </c>
+      <c r="F34">
+        <v>0.07430454233955683</v>
+      </c>
+      <c r="G34">
+        <v>-0.04694637499198193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01502357667266787</v>
+        <v>0.01378011066655048</v>
       </c>
       <c r="C36">
-        <v>-0.01748375307003187</v>
+        <v>0.01317299433320673</v>
       </c>
       <c r="D36">
-        <v>0.003069791687629549</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02101310586158506</v>
+      </c>
+      <c r="E36">
+        <v>0.05543468468943332</v>
+      </c>
+      <c r="F36">
+        <v>0.06686376034006843</v>
+      </c>
+      <c r="G36">
+        <v>-0.04169875626691884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02853734970436342</v>
+        <v>0.02248332633252346</v>
       </c>
       <c r="C38">
-        <v>-0.03111170890271294</v>
+        <v>0.02360893178309697</v>
       </c>
       <c r="D38">
-        <v>0.0131803027071143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01809060773250818</v>
+      </c>
+      <c r="E38">
+        <v>0.0462103888104697</v>
+      </c>
+      <c r="F38">
+        <v>0.05361377209332565</v>
+      </c>
+      <c r="G38">
+        <v>-0.02758357852268399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04248920198239931</v>
+        <v>0.03759978710621496</v>
       </c>
       <c r="C39">
-        <v>-0.06708550235002152</v>
+        <v>0.06488132270880197</v>
       </c>
       <c r="D39">
-        <v>-0.01694943911630689</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04856631238169332</v>
+      </c>
+      <c r="E39">
+        <v>0.04266445362062502</v>
+      </c>
+      <c r="F39">
+        <v>0.08777372068156147</v>
+      </c>
+      <c r="G39">
+        <v>-0.02990748925903473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01148959546884916</v>
+        <v>0.01235965617378451</v>
       </c>
       <c r="C40">
-        <v>-0.05116307524665557</v>
+        <v>0.03691946704805006</v>
       </c>
       <c r="D40">
-        <v>-0.01923722756864303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02941118911375562</v>
+      </c>
+      <c r="E40">
+        <v>0.08076043900477625</v>
+      </c>
+      <c r="F40">
+        <v>0.06123562852481972</v>
+      </c>
+      <c r="G40">
+        <v>-0.07981578349431842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02154483629955878</v>
+        <v>0.01923740279386889</v>
       </c>
       <c r="C41">
-        <v>-0.01363552513828769</v>
+        <v>0.01052189043013012</v>
       </c>
       <c r="D41">
-        <v>-0.002138276934311348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01441847268680098</v>
+      </c>
+      <c r="E41">
+        <v>0.05526049047939432</v>
+      </c>
+      <c r="F41">
+        <v>0.06081357566310407</v>
+      </c>
+      <c r="G41">
+        <v>-0.03385633880349326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03775645610410026</v>
+        <v>0.02868582671848309</v>
       </c>
       <c r="C43">
-        <v>-0.03538367127490921</v>
+        <v>0.02555285000508212</v>
       </c>
       <c r="D43">
-        <v>-0.02852295900487414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04099430031922685</v>
+      </c>
+      <c r="E43">
+        <v>0.07008116423793667</v>
+      </c>
+      <c r="F43">
+        <v>0.06440723243113955</v>
+      </c>
+      <c r="G43">
+        <v>-0.05783617258403909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0102835904430043</v>
+        <v>0.01220145440494359</v>
       </c>
       <c r="C44">
-        <v>-0.06827625379300636</v>
+        <v>0.05018633237510194</v>
       </c>
       <c r="D44">
-        <v>-0.009606143811694093</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03164232338117384</v>
+      </c>
+      <c r="E44">
+        <v>0.085406654277984</v>
+      </c>
+      <c r="F44">
+        <v>0.07128558052379279</v>
+      </c>
+      <c r="G44">
+        <v>-0.02441102197505821</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.006891133758979049</v>
+        <v>0.008053719384354783</v>
       </c>
       <c r="C46">
-        <v>-0.02956853361443957</v>
+        <v>0.02924439276859868</v>
       </c>
       <c r="D46">
-        <v>0.01744155718414985</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009157851719058478</v>
+      </c>
+      <c r="E46">
+        <v>0.05449410205303344</v>
+      </c>
+      <c r="F46">
+        <v>0.09904537082774864</v>
+      </c>
+      <c r="G46">
+        <v>-0.05172316649786405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08171353546602972</v>
+        <v>0.08687882397843202</v>
       </c>
       <c r="C47">
-        <v>-0.07444182245756394</v>
+        <v>0.08333037717265165</v>
       </c>
       <c r="D47">
-        <v>0.02354364409800725</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02032634803493353</v>
+      </c>
+      <c r="E47">
+        <v>0.07047228771843529</v>
+      </c>
+      <c r="F47">
+        <v>0.04724599751492371</v>
+      </c>
+      <c r="G47">
+        <v>-0.07336935405170421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01738501270426715</v>
+        <v>0.01591669057629074</v>
       </c>
       <c r="C48">
-        <v>-0.0169638055133586</v>
+        <v>0.01709258559614407</v>
       </c>
       <c r="D48">
-        <v>0.01684753316150161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.009667200746116959</v>
+      </c>
+      <c r="E48">
+        <v>0.06663225483489192</v>
+      </c>
+      <c r="F48">
+        <v>0.08444704793890701</v>
+      </c>
+      <c r="G48">
+        <v>-0.04888693609285581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07791421595330203</v>
+        <v>0.06945256418244308</v>
       </c>
       <c r="C50">
-        <v>-0.08428055793746786</v>
+        <v>0.07687294592824188</v>
       </c>
       <c r="D50">
-        <v>0.02345344781290986</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.006009563196580229</v>
+      </c>
+      <c r="E50">
+        <v>0.07501859244681099</v>
+      </c>
+      <c r="F50">
+        <v>0.02678800267885662</v>
+      </c>
+      <c r="G50">
+        <v>-0.09002570569464287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01302960560754233</v>
+        <v>0.009055723406156438</v>
       </c>
       <c r="C51">
-        <v>-0.05141129457236026</v>
+        <v>0.03202465213701348</v>
       </c>
       <c r="D51">
-        <v>-0.02667445235068687</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0480540356923705</v>
+      </c>
+      <c r="E51">
+        <v>0.04372765770245658</v>
+      </c>
+      <c r="F51">
+        <v>0.08728298297129675</v>
+      </c>
+      <c r="G51">
+        <v>-0.02687916041941935</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07922352045550125</v>
+        <v>0.09274642942021563</v>
       </c>
       <c r="C53">
-        <v>-0.08131735680767767</v>
+        <v>0.09004809779125214</v>
       </c>
       <c r="D53">
-        <v>0.04589484425501095</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05136239843320011</v>
+      </c>
+      <c r="E53">
+        <v>0.06665559564833398</v>
+      </c>
+      <c r="F53">
+        <v>0.04543044298182404</v>
+      </c>
+      <c r="G53">
+        <v>-0.078128878898308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03091204492199176</v>
+        <v>0.02745844099864685</v>
       </c>
       <c r="C54">
-        <v>-0.03207593780093772</v>
+        <v>0.02929514836213512</v>
       </c>
       <c r="D54">
-        <v>0.0009317921657997545</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02433260915040742</v>
+      </c>
+      <c r="E54">
+        <v>0.05378167109129777</v>
+      </c>
+      <c r="F54">
+        <v>0.09030838359671645</v>
+      </c>
+      <c r="G54">
+        <v>-0.05341192049961711</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07343189268287918</v>
+        <v>0.08450204704229582</v>
       </c>
       <c r="C55">
-        <v>-0.06239660040277228</v>
+        <v>0.07313198766853418</v>
       </c>
       <c r="D55">
-        <v>0.05156006912174104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05578755444069125</v>
+      </c>
+      <c r="E55">
+        <v>0.04886260877625682</v>
+      </c>
+      <c r="F55">
+        <v>0.02608328924465833</v>
+      </c>
+      <c r="G55">
+        <v>-0.0593324332858713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1428858450792609</v>
+        <v>0.1460159339932995</v>
       </c>
       <c r="C56">
-        <v>-0.1011786244695528</v>
+        <v>0.1114529824218786</v>
       </c>
       <c r="D56">
-        <v>0.04359234050224917</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05247582004651614</v>
+      </c>
+      <c r="E56">
+        <v>0.04886567258536414</v>
+      </c>
+      <c r="F56">
+        <v>0.003191485091493597</v>
+      </c>
+      <c r="G56">
+        <v>-0.04794461827330127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0001995705625839616</v>
+        <v>0.0001590882671868837</v>
       </c>
       <c r="C57">
-        <v>0.0006386316604475373</v>
+        <v>-0.0003996104141173874</v>
       </c>
       <c r="D57">
-        <v>0.000280370640505087</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>6.102080727002116e-06</v>
+      </c>
+      <c r="E57">
+        <v>-0.001303597918190707</v>
+      </c>
+      <c r="F57">
+        <v>-0.0004691000612990852</v>
+      </c>
+      <c r="G57">
+        <v>0.0008262770515437399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04190334174847442</v>
+        <v>0.02462846768913146</v>
       </c>
       <c r="C58">
-        <v>-0.0225948727521908</v>
+        <v>0.02184423448362099</v>
       </c>
       <c r="D58">
-        <v>-0.7558909597981223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4135237258502051</v>
+      </c>
+      <c r="E58">
+        <v>0.6507420321959289</v>
+      </c>
+      <c r="F58">
+        <v>-0.499406507489416</v>
+      </c>
+      <c r="G58">
+        <v>0.2894192797352353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1387261440053858</v>
+        <v>0.1482535578885846</v>
       </c>
       <c r="C59">
-        <v>0.1925186022118859</v>
+        <v>-0.183712387401095</v>
       </c>
       <c r="D59">
-        <v>-0.02022703667791053</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02407007099498065</v>
+      </c>
+      <c r="E59">
+        <v>0.02792570875485697</v>
+      </c>
+      <c r="F59">
+        <v>0.02994720451923944</v>
+      </c>
+      <c r="G59">
+        <v>0.02047996782475018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.308164012990316</v>
+        <v>0.2799037862553195</v>
       </c>
       <c r="C60">
-        <v>-0.1086274975963126</v>
+        <v>0.1062424810648243</v>
       </c>
       <c r="D60">
-        <v>-0.1389430139342015</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2549726622675911</v>
+      </c>
+      <c r="E60">
+        <v>-0.2530923346150229</v>
+      </c>
+      <c r="F60">
+        <v>-0.06853290858844722</v>
+      </c>
+      <c r="G60">
+        <v>-0.04291023075216371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04068141960834675</v>
+        <v>0.03896094196514447</v>
       </c>
       <c r="C61">
-        <v>-0.06455813672158806</v>
+        <v>0.06080097368206382</v>
       </c>
       <c r="D61">
-        <v>-0.01438243952464896</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04083500637551474</v>
+      </c>
+      <c r="E61">
+        <v>0.04673959080332322</v>
+      </c>
+      <c r="F61">
+        <v>0.07094223120414694</v>
+      </c>
+      <c r="G61">
+        <v>-0.04986993341680799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01412239425202773</v>
+        <v>0.01401151501473409</v>
       </c>
       <c r="C63">
-        <v>-0.03531540722259652</v>
+        <v>0.03212599995007587</v>
       </c>
       <c r="D63">
-        <v>0.01189332102357969</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01581659902734955</v>
+      </c>
+      <c r="E63">
+        <v>0.05839638821806896</v>
+      </c>
+      <c r="F63">
+        <v>0.05707616988856627</v>
+      </c>
+      <c r="G63">
+        <v>-0.05935857770780833</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04743478432497988</v>
+        <v>0.05411464719638735</v>
       </c>
       <c r="C64">
-        <v>-0.04894729629142264</v>
+        <v>0.05795496648981275</v>
       </c>
       <c r="D64">
-        <v>-0.0009362857130755941</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.004071577784814431</v>
+      </c>
+      <c r="E64">
+        <v>0.03623160577956055</v>
+      </c>
+      <c r="F64">
+        <v>0.07402232967046386</v>
+      </c>
+      <c r="G64">
+        <v>-0.04290878036632311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08288755336560022</v>
+        <v>0.06712078970959053</v>
       </c>
       <c r="C65">
-        <v>-0.03349548993239473</v>
+        <v>0.0307776496403303</v>
       </c>
       <c r="D65">
-        <v>-0.05683149065512143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08486034996718049</v>
+      </c>
+      <c r="E65">
+        <v>0.04860783136327939</v>
+      </c>
+      <c r="F65">
+        <v>0.009950914195683636</v>
+      </c>
+      <c r="G65">
+        <v>-0.0165289599020896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0571245342977025</v>
+        <v>0.04849025306143166</v>
       </c>
       <c r="C66">
-        <v>-0.09317931299881491</v>
+        <v>0.08417733572185887</v>
       </c>
       <c r="D66">
-        <v>-0.03620414147165868</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07292467340802687</v>
+      </c>
+      <c r="E66">
+        <v>0.05061389101292704</v>
+      </c>
+      <c r="F66">
+        <v>0.08654572974341421</v>
+      </c>
+      <c r="G66">
+        <v>-0.04831606718828287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05085227205088488</v>
+        <v>0.04464083226995499</v>
       </c>
       <c r="C67">
-        <v>-0.03302460089338412</v>
+        <v>0.02908880648611132</v>
       </c>
       <c r="D67">
-        <v>0.01926224744060838</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003107576230308292</v>
+      </c>
+      <c r="E67">
+        <v>0.0239342322333102</v>
+      </c>
+      <c r="F67">
+        <v>0.03806308225461007</v>
+      </c>
+      <c r="G67">
+        <v>-0.02404197040797463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1382478986246005</v>
+        <v>0.1576015107281618</v>
       </c>
       <c r="C68">
-        <v>0.2776900267058709</v>
+        <v>-0.2430931042867033</v>
       </c>
       <c r="D68">
-        <v>0.007949288548206474</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01643181214521331</v>
+      </c>
+      <c r="E68">
+        <v>0.04198943361243748</v>
+      </c>
+      <c r="F68">
+        <v>0.01687266409804497</v>
+      </c>
+      <c r="G68">
+        <v>-0.02837065317217638</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08834909571735196</v>
+        <v>0.08571097349052183</v>
       </c>
       <c r="C69">
-        <v>-0.07423017606209097</v>
+        <v>0.09065601902900138</v>
       </c>
       <c r="D69">
-        <v>0.03838946294412563</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01182650627174462</v>
+      </c>
+      <c r="E69">
+        <v>0.0543079566878753</v>
+      </c>
+      <c r="F69">
+        <v>0.07308799636225159</v>
+      </c>
+      <c r="G69">
+        <v>-0.06207113062014027</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.124910556929793</v>
+        <v>0.1475732816215735</v>
       </c>
       <c r="C71">
-        <v>0.2454800463701951</v>
+        <v>-0.2338169804064174</v>
       </c>
       <c r="D71">
-        <v>-0.01750887632389222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.001202127277191712</v>
+      </c>
+      <c r="E71">
+        <v>0.06357061435333575</v>
+      </c>
+      <c r="F71">
+        <v>0.03591894358652634</v>
+      </c>
+      <c r="G71">
+        <v>-0.05827164786871299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08948597228137919</v>
+        <v>0.0983474459360095</v>
       </c>
       <c r="C72">
-        <v>-0.0607093849512005</v>
+        <v>0.06044948962185074</v>
       </c>
       <c r="D72">
-        <v>-0.003569482550652849</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0269863476551653</v>
+      </c>
+      <c r="E72">
+        <v>0.02538900162415955</v>
+      </c>
+      <c r="F72">
+        <v>0.05242100639798634</v>
+      </c>
+      <c r="G72">
+        <v>-0.06063200175310898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4030234215672591</v>
+        <v>0.3417024386205111</v>
       </c>
       <c r="C73">
-        <v>-0.05985693841266321</v>
+        <v>0.07348593497950687</v>
       </c>
       <c r="D73">
-        <v>-0.3454111472971201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5104061585480577</v>
+      </c>
+      <c r="E73">
+        <v>-0.4538017989974112</v>
+      </c>
+      <c r="F73">
+        <v>-0.2174474354593181</v>
+      </c>
+      <c r="G73">
+        <v>-0.05236714827179679</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1021555625216891</v>
+        <v>0.1083858974196438</v>
       </c>
       <c r="C74">
-        <v>-0.09884029751208201</v>
+        <v>0.09872874483745472</v>
       </c>
       <c r="D74">
-        <v>0.02619268118783606</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0426615316116872</v>
+      </c>
+      <c r="E74">
+        <v>0.06498021377447372</v>
+      </c>
+      <c r="F74">
+        <v>0.002865815231072869</v>
+      </c>
+      <c r="G74">
+        <v>-0.06839442012310117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2504738622117538</v>
+        <v>0.2554705905342213</v>
       </c>
       <c r="C75">
-        <v>-0.1127789348345307</v>
+        <v>0.1374285445410605</v>
       </c>
       <c r="D75">
-        <v>0.1008238861063226</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1437310009782579</v>
+      </c>
+      <c r="E75">
+        <v>0.05588751174137832</v>
+      </c>
+      <c r="F75">
+        <v>-0.04630100330321473</v>
+      </c>
+      <c r="G75">
+        <v>-0.02056974214348567</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1084908138950774</v>
+        <v>0.1241706761235165</v>
       </c>
       <c r="C76">
-        <v>-0.08930817105764904</v>
+        <v>0.09982961895965506</v>
       </c>
       <c r="D76">
-        <v>0.05224132992976354</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0711475933866221</v>
+      </c>
+      <c r="E76">
+        <v>0.07483132939891705</v>
+      </c>
+      <c r="F76">
+        <v>0.02562724744807595</v>
+      </c>
+      <c r="G76">
+        <v>-0.05774172805889046</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07453028541629704</v>
+        <v>0.05916394732585567</v>
       </c>
       <c r="C77">
-        <v>-0.05947558570255591</v>
+        <v>0.07053067558694202</v>
       </c>
       <c r="D77">
-        <v>-0.04921425891597666</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05622734076445193</v>
+      </c>
+      <c r="E77">
+        <v>0.09590146327836216</v>
+      </c>
+      <c r="F77">
+        <v>0.1467827618383871</v>
+      </c>
+      <c r="G77">
+        <v>0.1123495866933815</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04555418058653954</v>
+        <v>0.04275993846233621</v>
       </c>
       <c r="C78">
-        <v>-0.05213559334702247</v>
+        <v>0.05809892308820638</v>
       </c>
       <c r="D78">
-        <v>-0.01681225142026379</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05630523259644211</v>
+      </c>
+      <c r="E78">
+        <v>0.05314699561333171</v>
+      </c>
+      <c r="F78">
+        <v>0.08115773962357049</v>
+      </c>
+      <c r="G78">
+        <v>-0.0430809811174478</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02852657449779861</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04570509945757159</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06932735587264868</v>
+      </c>
+      <c r="E79">
+        <v>0.06506759812473037</v>
+      </c>
+      <c r="F79">
+        <v>-0.01120618651912095</v>
+      </c>
+      <c r="G79">
+        <v>-0.06248519482019285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03831845683585349</v>
+        <v>0.03003454289648952</v>
       </c>
       <c r="C80">
-        <v>-0.05402800757932286</v>
+        <v>0.05264719588620625</v>
       </c>
       <c r="D80">
-        <v>-0.01604841386467535</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03188097453834298</v>
+      </c>
+      <c r="E80">
+        <v>0.01526647383639352</v>
+      </c>
+      <c r="F80">
+        <v>0.0466855072237416</v>
+      </c>
+      <c r="G80">
+        <v>0.02954663060252623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1366513333781564</v>
+        <v>0.1369742019849759</v>
       </c>
       <c r="C81">
-        <v>-0.08177381155238272</v>
+        <v>0.09730234686437497</v>
       </c>
       <c r="D81">
-        <v>0.07155544820245156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1135036338909735</v>
+      </c>
+      <c r="E81">
+        <v>0.07602113966812546</v>
+      </c>
+      <c r="F81">
+        <v>-0.02910592618212868</v>
+      </c>
+      <c r="G81">
+        <v>-0.02522390906423989</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1687916186313473</v>
+        <v>0.2074530331072806</v>
       </c>
       <c r="C82">
-        <v>-0.09724255143212772</v>
+        <v>0.1597461436545657</v>
       </c>
       <c r="D82">
-        <v>0.1592849827205571</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2341096246928392</v>
+      </c>
+      <c r="E82">
+        <v>-0.001515237233326613</v>
+      </c>
+      <c r="F82">
+        <v>0.0485168386774788</v>
+      </c>
+      <c r="G82">
+        <v>-0.04378180732383404</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03830936940209473</v>
+        <v>0.02625652443506307</v>
       </c>
       <c r="C83">
-        <v>-0.03160942530687563</v>
+        <v>0.04336323271521528</v>
       </c>
       <c r="D83">
-        <v>-0.02627979766476079</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02760098027466637</v>
+      </c>
+      <c r="E83">
+        <v>0.02225621076532837</v>
+      </c>
+      <c r="F83">
+        <v>0.0461566932043669</v>
+      </c>
+      <c r="G83">
+        <v>0.004841636504596112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001556946840283311</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0008380409578072519</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001101870976234514</v>
+      </c>
+      <c r="E84">
+        <v>0.0007314561435734504</v>
+      </c>
+      <c r="F84">
+        <v>0.00108908236097336</v>
+      </c>
+      <c r="G84">
+        <v>-0.0003658329513504394</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2162508591538838</v>
+        <v>0.2006888868173858</v>
       </c>
       <c r="C85">
-        <v>-0.1094435666648297</v>
+        <v>0.1197037669107174</v>
       </c>
       <c r="D85">
-        <v>0.1347852777569538</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1123168100294257</v>
+      </c>
+      <c r="E85">
+        <v>-0.01656903884704092</v>
+      </c>
+      <c r="F85">
+        <v>-0.08825838402405942</v>
+      </c>
+      <c r="G85">
+        <v>-0.07084130361308125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.00559702081309255</v>
+        <v>0.008294169489420602</v>
       </c>
       <c r="C86">
-        <v>-0.0323873084132281</v>
+        <v>0.02269514160260344</v>
       </c>
       <c r="D86">
-        <v>-0.02522802173850694</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04630768238060209</v>
+      </c>
+      <c r="E86">
+        <v>0.06785835892825068</v>
+      </c>
+      <c r="F86">
+        <v>0.1298775210334893</v>
+      </c>
+      <c r="G86">
+        <v>-0.04810561494484947</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02249849389397847</v>
+        <v>0.02247257327327021</v>
       </c>
       <c r="C87">
-        <v>-0.00839372080956766</v>
+        <v>0.01515791628156546</v>
       </c>
       <c r="D87">
-        <v>-0.08641488935622404</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0806398885448872</v>
+      </c>
+      <c r="E87">
+        <v>0.1220806027267009</v>
+      </c>
+      <c r="F87">
+        <v>0.08319542214785954</v>
+      </c>
+      <c r="G87">
+        <v>0.006603993769277285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1035697071707107</v>
+        <v>0.09142296343486235</v>
       </c>
       <c r="C88">
-        <v>-0.07532614155016487</v>
+        <v>0.06415661237221938</v>
       </c>
       <c r="D88">
-        <v>0.02414707874715866</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.003022793729939279</v>
+      </c>
+      <c r="E88">
+        <v>0.04606194530311739</v>
+      </c>
+      <c r="F88">
+        <v>0.07578241955229943</v>
+      </c>
+      <c r="G88">
+        <v>-0.01180455636173074</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1989295551890383</v>
+        <v>0.2284905641831347</v>
       </c>
       <c r="C89">
-        <v>0.3714553529605942</v>
+        <v>-0.3757055545059588</v>
       </c>
       <c r="D89">
-        <v>0.0311160370632982</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02699653878776796</v>
+      </c>
+      <c r="E89">
+        <v>0.06621836007122692</v>
+      </c>
+      <c r="F89">
+        <v>0.08985408819261811</v>
+      </c>
+      <c r="G89">
+        <v>0.03551946259936833</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1895296326327111</v>
+        <v>0.207161354973255</v>
       </c>
       <c r="C90">
-        <v>0.3292688300170021</v>
+        <v>-0.308325990918246</v>
       </c>
       <c r="D90">
-        <v>0.02736483584297993</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02657564233492589</v>
+      </c>
+      <c r="E90">
+        <v>0.0672150237726041</v>
+      </c>
+      <c r="F90">
+        <v>0.03946486568972823</v>
+      </c>
+      <c r="G90">
+        <v>-0.0002414466875710219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.185447248993457</v>
+        <v>0.1837056177892742</v>
       </c>
       <c r="C91">
-        <v>-0.1331175728607449</v>
+        <v>0.1477212699744561</v>
       </c>
       <c r="D91">
-        <v>0.09512286719733686</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1192241088495603</v>
+      </c>
+      <c r="E91">
+        <v>0.05429383572670549</v>
+      </c>
+      <c r="F91">
+        <v>-0.01593575777826486</v>
+      </c>
+      <c r="G91">
+        <v>-0.02848697851395688</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1703512165222633</v>
+        <v>0.1859370887917293</v>
       </c>
       <c r="C92">
-        <v>0.2747634917875896</v>
+        <v>-0.2824727537010913</v>
       </c>
       <c r="D92">
-        <v>0.01834127097835898</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02751588051839842</v>
+      </c>
+      <c r="E92">
+        <v>0.07521736665586844</v>
+      </c>
+      <c r="F92">
+        <v>0.07370441984944474</v>
+      </c>
+      <c r="G92">
+        <v>-0.01368395365044482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2119171614263049</v>
+        <v>0.2298607389285219</v>
       </c>
       <c r="C93">
-        <v>0.3289166073140088</v>
+        <v>-0.3137024118086412</v>
       </c>
       <c r="D93">
-        <v>0.03134521853602515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02352086716735797</v>
+      </c>
+      <c r="E93">
+        <v>0.041282081909396</v>
+      </c>
+      <c r="F93">
+        <v>0.01998579680089754</v>
+      </c>
+      <c r="G93">
+        <v>-0.03457267609446427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3341591002351587</v>
+        <v>0.3380340660516443</v>
       </c>
       <c r="C94">
-        <v>-0.163719082309192</v>
+        <v>0.196384984113606</v>
       </c>
       <c r="D94">
-        <v>0.3484535990422271</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4349538998293001</v>
+      </c>
+      <c r="E94">
+        <v>-0.0003863733268380381</v>
+      </c>
+      <c r="F94">
+        <v>-0.2775125019213289</v>
+      </c>
+      <c r="G94">
+        <v>0.419886744095286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1106352352956567</v>
+        <v>0.08242182435517224</v>
       </c>
       <c r="C95">
-        <v>-0.07402701836433929</v>
+        <v>0.06479106138379059</v>
       </c>
       <c r="D95">
-        <v>-0.1214212455501742</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1773256903413643</v>
+      </c>
+      <c r="E95">
+        <v>-0.1001324019574031</v>
+      </c>
+      <c r="F95">
+        <v>0.5245007599263377</v>
+      </c>
+      <c r="G95">
+        <v>0.7375310715174513</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1949470056602976</v>
+        <v>0.1872974929448982</v>
       </c>
       <c r="C98">
-        <v>-0.0234395378154495</v>
+        <v>0.04491414218223704</v>
       </c>
       <c r="D98">
-        <v>-0.1234886774259278</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1970108027305344</v>
+      </c>
+      <c r="E98">
+        <v>-0.1375759119269933</v>
+      </c>
+      <c r="F98">
+        <v>-0.05213223561612162</v>
+      </c>
+      <c r="G98">
+        <v>-0.09080693356393069</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.005664195406081365</v>
+        <v>0.004826201458532527</v>
       </c>
       <c r="C101">
-        <v>-0.03296604074310936</v>
+        <v>0.02879836922022369</v>
       </c>
       <c r="D101">
-        <v>0.0162201269947973</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01511037044658674</v>
+      </c>
+      <c r="E101">
+        <v>0.04597641578585168</v>
+      </c>
+      <c r="F101">
+        <v>0.08545916963654454</v>
+      </c>
+      <c r="G101">
+        <v>-0.05431071769089033</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1219767018120361</v>
+        <v>0.1241560506649873</v>
       </c>
       <c r="C102">
-        <v>-0.07664882225187178</v>
+        <v>0.1040383393044357</v>
       </c>
       <c r="D102">
-        <v>0.03984628211875454</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05236222659282593</v>
+      </c>
+      <c r="E102">
+        <v>-0.007409236469572447</v>
+      </c>
+      <c r="F102">
+        <v>0.01816383377041297</v>
+      </c>
+      <c r="G102">
+        <v>-0.003280020267088853</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
